--- a/Updated Rvc Pandemic Predictor v1.1.xlsx
+++ b/Updated Rvc Pandemic Predictor v1.1.xlsx
@@ -1462,24 +1462,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="26" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,6 +1475,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1568,6 +1553,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1655,7 +1655,7 @@
                 </a:solidFill>
                 <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>PANDEMIC PREDICTION by RVC v1.0</a:t>
+              <a:t>PANDEMIC PREDICTION by RVC v1.1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8273,7 +8273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A24:AD739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
@@ -8313,13 +8313,13 @@
     <row r="32" ht="15" customHeight="1"/>
     <row r="33" spans="1:30" ht="15" customHeight="1" thickBot="1"/>
     <row r="34" spans="1:30" ht="15" customHeight="1" thickTop="1">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="143">
+      <c r="B34" s="138">
         <v>3124458</v>
       </c>
-      <c r="C34" s="144"/>
+      <c r="C34" s="139"/>
       <c r="D34" s="108"/>
       <c r="E34" s="20"/>
       <c r="F34" s="53"/>
@@ -8343,9 +8343,9 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="117"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="146"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="140"/>
+      <c r="C35" s="141"/>
       <c r="D35" s="108"/>
       <c r="E35" s="20"/>
       <c r="F35" s="53"/>
@@ -8391,42 +8391,42 @@
       </c>
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="118" t="s">
+      <c r="A37" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="119"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="129"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="129"/>
-      <c r="N37" s="129"/>
-      <c r="O37" s="129"/>
-      <c r="P37" s="130"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="124"/>
+      <c r="N37" s="124"/>
+      <c r="O37" s="124"/>
+      <c r="P37" s="125"/>
       <c r="Q37" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R37" s="141" t="s">
+      <c r="R37" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="S37" s="142"/>
-      <c r="T37" s="142"/>
-      <c r="U37" s="142"/>
-      <c r="V37" s="142"/>
-      <c r="W37" s="142"/>
-      <c r="X37" s="142"/>
-      <c r="Y37" s="142"/>
+      <c r="S37" s="137"/>
+      <c r="T37" s="137"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="137"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="137"/>
+      <c r="Y37" s="137"/>
       <c r="Z37" s="35"/>
-      <c r="AA37" s="113" t="s">
+      <c r="AA37" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="AB37" s="114"/>
+      <c r="AB37" s="145"/>
       <c r="AC37">
         <v>3</v>
       </c>
@@ -8435,54 +8435,54 @@
       </c>
     </row>
     <row r="38" spans="1:30" ht="15" customHeight="1" thickTop="1">
-      <c r="A38" s="131" t="s">
+      <c r="A38" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="132"/>
-      <c r="C38" s="123" t="s">
+      <c r="B38" s="127"/>
+      <c r="C38" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="133" t="s">
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="134"/>
-      <c r="I38" s="135" t="s">
+      <c r="H38" s="129"/>
+      <c r="I38" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="136"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="137"/>
-      <c r="M38" s="138" t="s">
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="N38" s="139"/>
-      <c r="O38" s="139"/>
-      <c r="P38" s="140"/>
-      <c r="Q38" s="126" t="s">
+      <c r="N38" s="134"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="135"/>
+      <c r="Q38" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="R38" s="120" t="s">
+      <c r="R38" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="S38" s="121"/>
-      <c r="T38" s="121"/>
-      <c r="U38" s="121"/>
+      <c r="S38" s="115"/>
+      <c r="T38" s="115"/>
+      <c r="U38" s="115"/>
       <c r="V38" s="116"/>
-      <c r="W38" s="115" t="s">
+      <c r="W38" s="146" t="s">
         <v>7</v>
       </c>
       <c r="X38" s="116"/>
-      <c r="Y38" s="115" t="s">
+      <c r="Y38" s="146" t="s">
         <v>8</v>
       </c>
       <c r="Z38" s="116"/>
-      <c r="AA38" s="111" t="s">
+      <c r="AA38" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="AB38" s="111" t="s">
+      <c r="AB38" s="142" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8535,7 +8535,7 @@
       <c r="P39" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q39" s="127"/>
+      <c r="Q39" s="122"/>
       <c r="R39" s="42" t="s">
         <v>10</v>
       </c>
@@ -8563,8 +8563,8 @@
       <c r="Z39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AA39" s="112"/>
-      <c r="AB39" s="112"/>
+      <c r="AA39" s="143"/>
+      <c r="AB39" s="143"/>
     </row>
     <row r="40" spans="1:30" ht="15" customHeight="1" thickTop="1">
       <c r="A40" s="77"/>
@@ -8592,10 +8592,10 @@
       <c r="S40" s="10">
         <v>0.8</v>
       </c>
-      <c r="T40" s="122" t="s">
+      <c r="T40" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="U40" s="122"/>
+      <c r="U40" s="117"/>
       <c r="V40" s="27"/>
       <c r="AA40" s="26"/>
     </row>
@@ -50436,6 +50436,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:Z38"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="R38:V38"/>
@@ -50449,11 +50454,6 @@
     <mergeCell ref="M38:P38"/>
     <mergeCell ref="R37:Y37"/>
     <mergeCell ref="B34:C35"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:Z38"/>
   </mergeCells>
   <conditionalFormatting sqref="Q42:Q739">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="notEqual">
